--- a/src/com/huai/templet/Stu_Info_templet.xlsx
+++ b/src/com/huai/templet/Stu_Info_templet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
   </si>
@@ -29,6 +29,9 @@
     <t>专业</t>
   </si>
   <si>
+    <t>学院</t>
+  </si>
+  <si>
     <t>学号</t>
   </si>
   <si>
@@ -40,6 +43,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这些字段的顺序可以改变</t>
     </r>
@@ -57,6 +61,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如果第一行</t>
     </r>
@@ -74,6 +79,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">标题行</t>
     </r>
@@ -91,6 +97,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有其他字段</t>
     </r>
@@ -108,8 +115,9 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">不影响系统对前面这五个字段的识别</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">不影响系统对前面这六个字段的识别</t>
     </r>
     <r>
       <rPr>
@@ -125,6 +133,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可以正常导入</t>
     </r>
@@ -137,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,11 +173,6 @@
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -249,17 +253,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,8 +282,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
